--- a/consolidated_forecast_WITH_PO.xlsx
+++ b/consolidated_forecast_WITH_PO.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B08F7BHDLY" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No ASIN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,537 +429,693 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>product title</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>Week_Start_Date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>ASIN</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>asin</t>
+          <t>Amazon Mean Forecast</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS27QC SA</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2023</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
-        <v/>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>44955</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>102</v>
+      </c>
+      <c r="H2" t="n">
+        <v>116</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS27F SA</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2023</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v/>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>44962</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>95</v>
+      </c>
+      <c r="G3" t="n">
+        <v>105</v>
+      </c>
+      <c r="H3" t="n">
+        <v>121</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS27FC SA</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2023</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E4" t="n">
-        <v/>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>44962</v>
+        <v>86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>111</v>
+      </c>
+      <c r="H4" t="n">
+        <v>128</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS27F SA</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2023</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>44962</v>
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
+        <v>101</v>
+      </c>
+      <c r="G5" t="n">
+        <v>113</v>
+      </c>
+      <c r="H5" t="n">
+        <v>132</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W32</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2023</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>45137</v>
+        <v>87</v>
+      </c>
+      <c r="F6" t="n">
+        <v>102</v>
+      </c>
+      <c r="G6" t="n">
+        <v>116</v>
+      </c>
+      <c r="H6" t="n">
+        <v>137</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>W33</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2023</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>45144</v>
+        <v>86</v>
+      </c>
+      <c r="F7" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" t="n">
+        <v>114</v>
+      </c>
+      <c r="H7" t="n">
+        <v>135</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>W34</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2023</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>45151</v>
+        <v>84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>99</v>
+      </c>
+      <c r="G8" t="n">
+        <v>114</v>
+      </c>
+      <c r="H8" t="n">
+        <v>137</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>W35</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2023</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>45158</v>
+        <v>85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>118</v>
+      </c>
+      <c r="H9" t="n">
+        <v>142</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>W36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2023</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>45165</v>
+        <v>84</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>115</v>
+      </c>
+      <c r="H10" t="n">
+        <v>137</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27F SA                      </t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>W37</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2023</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>45172</v>
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96</v>
+      </c>
+      <c r="G11" t="n">
+        <v>112</v>
+      </c>
+      <c r="H11" t="n">
+        <v>137</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27FC SA </t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>W37</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2023</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>45172</v>
+        <v>81</v>
+      </c>
+      <c r="F12" t="n">
+        <v>97</v>
+      </c>
+      <c r="G12" t="n">
+        <v>114</v>
+      </c>
+      <c r="H12" t="n">
+        <v>139</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>W37</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2023</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>45172</v>
+        <v>81</v>
+      </c>
+      <c r="F13" t="n">
+        <v>97</v>
+      </c>
+      <c r="G13" t="n">
+        <v>114</v>
+      </c>
+      <c r="H13" t="n">
+        <v>139</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27F SA                      </t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>W38</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2023</v>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>45179</v>
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>111</v>
+      </c>
+      <c r="H14" t="n">
+        <v>136</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27FC SA                     </t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>W38</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2023</v>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>45179</v>
+        <v>75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>90</v>
+      </c>
+      <c r="G15" t="n">
+        <v>106</v>
+      </c>
+      <c r="H15" t="n">
+        <v>132</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>W38</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2023</v>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>45179</v>
+        <v>75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90</v>
+      </c>
+      <c r="G16" t="n">
+        <v>105</v>
+      </c>
+      <c r="H16" t="n">
+        <v>129</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">GS27F SA                      </t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>W39</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2023</v>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E17" t="n">
-        <v/>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>45186</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27FC SA                     </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>W39</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v/>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>45186</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>W39</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25</v>
-      </c>
-      <c r="E19" t="n">
-        <v/>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>45186</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27F SA                      </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>W40</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v/>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>45193</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27FC SA                     </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>W40</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v/>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>45193</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GS27QC SA                     </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>W40</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D22" t="n">
-        <v>71</v>
-      </c>
-      <c r="E22" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>45193</v>
+        <v>74</v>
+      </c>
+      <c r="F17" t="n">
+        <v>89</v>
+      </c>
+      <c r="G17" t="n">
+        <v>105</v>
+      </c>
+      <c r="H17" t="n">
+        <v>130</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -972,7 +1129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +1140,561 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>product title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>asin</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS27QC SA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS27F SA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS27FC SA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS27F SA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>44962</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W32</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>W33</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>W34</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>W35</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>W36</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>W37</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>45172</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA                     </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>W38</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA                     </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>W39</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27F SA                      </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>W40</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v/>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27FC SA                     </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>W40</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GS27QC SA                     </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>W40</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D22" t="n">
+        <v>71</v>
+      </c>
+      <c r="E22" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>45193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
@@ -1005,6 +1717,27 @@
         <is>
           <t>16 Week Forecast</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>407.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>836.4000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1588</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast_WITH_PO.xlsx
+++ b/consolidated_forecast_WITH_PO.xlsx
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" t="n">
         <v>245</v>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
         <v>240</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E11" t="n">
         <v>242</v>
@@ -10670,7 +10670,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>74</v>
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
         <v>77</v>
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" t="n">
         <v>77</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>41</v>
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
@@ -11381,7 +11381,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
         <v>43</v>
@@ -11461,7 +11461,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>42</v>
@@ -11541,7 +11541,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>44</v>
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -36000,13 +36000,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>8.860000000000001</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>16.12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -36021,13 +36021,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>391.3</v>
+        <v>391</v>
       </c>
       <c r="D3" t="n">
-        <v>856.4000000000001</v>
+        <v>853</v>
       </c>
       <c r="E3" t="n">
-        <v>1677.1</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4">
@@ -36042,13 +36042,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.865</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.58</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>11.80307692307692</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -36063,13 +36063,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.120000000000001</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>11.28</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>23.36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -36084,13 +36084,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -36111,7 +36111,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -36126,10 +36126,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>270.72</v>
+        <v>271</v>
       </c>
       <c r="D8" t="n">
-        <v>541.1800000000001</v>
+        <v>541</v>
       </c>
       <c r="E8" t="n">
         <v>1047</v>
@@ -36147,13 +36147,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>447.7</v>
+        <v>448</v>
       </c>
       <c r="D9" t="n">
-        <v>974.2</v>
+        <v>974</v>
       </c>
       <c r="E9" t="n">
-        <v>1944.9</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="10">
@@ -36168,13 +36168,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>115.7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -36210,13 +36210,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5.899999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -36231,13 +36231,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>411.2</v>
+        <v>411</v>
       </c>
       <c r="D13" t="n">
-        <v>823.4000000000001</v>
+        <v>823</v>
       </c>
       <c r="E13" t="n">
-        <v>1483.5</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="14">
@@ -36252,13 +36252,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.32</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>16.64</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>33.28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -36279,7 +36279,7 @@
         <v>5087</v>
       </c>
       <c r="E15" t="n">
-        <v>10205.9</v>
+        <v>10206</v>
       </c>
     </row>
     <row r="16">
@@ -36294,13 +36294,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149.9</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
-        <v>314.7</v>
+        <v>315</v>
       </c>
       <c r="E16" t="n">
-        <v>616.5999999999999</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17">
@@ -36315,13 +36315,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -36336,13 +36336,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5599999999999999</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -36357,13 +36357,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.96</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>26.44</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>52.28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -36381,7 +36381,7 @@
         <v>157</v>
       </c>
       <c r="D20" t="n">
-        <v>355.9</v>
+        <v>356</v>
       </c>
       <c r="E20" t="n">
         <v>721</v>
@@ -36399,10 +36399,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4.760000000000001</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -36420,10 +36420,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>407.3</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>836.4000000000001</v>
+        <v>836</v>
       </c>
       <c r="E22" t="n">
         <v>1588</v>
@@ -36441,13 +36441,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.460000000000001</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>9.700000000000001</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>22.08</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -36462,13 +36462,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>314.56</v>
+        <v>315</v>
       </c>
       <c r="D24" t="n">
-        <v>625.28</v>
+        <v>626</v>
       </c>
       <c r="E24" t="n">
-        <v>1222.92</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="25">
@@ -36504,13 +36504,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5599999999999999</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -36525,13 +36525,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>810.8</v>
+        <v>811</v>
       </c>
       <c r="D27" t="n">
-        <v>1685.9</v>
+        <v>1687</v>
       </c>
       <c r="E27" t="n">
-        <v>3362.9</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="28">
@@ -36546,13 +36546,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>6.719999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -36567,13 +36567,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D29" t="n">
-        <v>1063.4</v>
+        <v>1066</v>
       </c>
       <c r="E29" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="30">
@@ -36588,13 +36588,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>66.67999999999999</v>
+        <v>66</v>
       </c>
       <c r="D30" t="n">
-        <v>127.48</v>
+        <v>125</v>
       </c>
       <c r="E30" t="n">
-        <v>256.74</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -36609,13 +36609,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="D31" t="n">
-        <v>80.98</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
-        <v>161.66</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -36630,13 +36630,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>9.200000000000001</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -36651,13 +36651,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>730.6</v>
+        <v>731</v>
       </c>
       <c r="D33" t="n">
-        <v>1441.7</v>
+        <v>1442</v>
       </c>
       <c r="E33" t="n">
-        <v>2757.3</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="34">
@@ -36672,13 +36672,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450.6</v>
+        <v>451</v>
       </c>
       <c r="D34" t="n">
-        <v>912.1</v>
+        <v>912</v>
       </c>
       <c r="E34" t="n">
-        <v>1791.8</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="35">
@@ -36693,13 +36693,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.38</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>26.26000000000001</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>53.26000000000001</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -36714,13 +36714,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -36756,13 +36756,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>8.58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -36777,13 +36777,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>58.50000000000001</v>
+        <v>59</v>
       </c>
       <c r="D39" t="n">
-        <v>120.4</v>
+        <v>120</v>
       </c>
       <c r="E39" t="n">
-        <v>230.9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
@@ -36798,13 +36798,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1899.3</v>
+        <v>1899</v>
       </c>
       <c r="D40" t="n">
-        <v>3510.3</v>
+        <v>3504</v>
       </c>
       <c r="E40" t="n">
-        <v>6460.3</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="41">
@@ -36819,13 +36819,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -36840,13 +36840,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.74</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>11.48</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>20.64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -36882,13 +36882,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66.30000000000001</v>
+        <v>66</v>
       </c>
       <c r="D44" t="n">
-        <v>141.7</v>
+        <v>142</v>
       </c>
       <c r="E44" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45">
@@ -36903,13 +36903,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>63.7</v>
+        <v>64</v>
       </c>
       <c r="D45" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="E45" t="n">
-        <v>249.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46">
@@ -36924,13 +36924,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10.38</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>21.78</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>42.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -36945,13 +36945,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>314.6</v>
+        <v>315</v>
       </c>
       <c r="D47" t="n">
-        <v>612.5</v>
+        <v>612</v>
       </c>
       <c r="E47" t="n">
-        <v>1216.2</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="48">
@@ -36966,13 +36966,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>3.84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -36987,13 +36987,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>6.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -37008,13 +37008,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>36.26000000000001</v>
+        <v>36</v>
       </c>
       <c r="D50" t="n">
-        <v>87.86000000000001</v>
+        <v>88</v>
       </c>
       <c r="E50" t="n">
-        <v>190.28</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51">
@@ -37029,13 +37029,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>633.1</v>
+        <v>633</v>
       </c>
       <c r="D51" t="n">
-        <v>1258.4</v>
+        <v>1258</v>
       </c>
       <c r="E51" t="n">
-        <v>2058.2</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="52">
@@ -37071,13 +37071,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>258.7</v>
+        <v>259</v>
       </c>
       <c r="D53" t="n">
         <v>507</v>
       </c>
       <c r="E53" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54">
@@ -37092,13 +37092,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -37113,13 +37113,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>204.1</v>
+        <v>204</v>
       </c>
       <c r="D55" t="n">
-        <v>403.8</v>
+        <v>404</v>
       </c>
       <c r="E55" t="n">
-        <v>801.4</v>
+        <v>800</v>
       </c>
     </row>
     <row r="56">
@@ -37134,13 +37134,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>139.7</v>
+        <v>142</v>
       </c>
       <c r="D56" t="n">
-        <v>282.3000000000001</v>
+        <v>284</v>
       </c>
       <c r="E56" t="n">
-        <v>550.9000000000001</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57">
@@ -37155,13 +37155,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>4.96</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>9.280000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -37176,13 +37176,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>14.26</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>29.04</v>
+        <v>29</v>
       </c>
       <c r="E58" t="n">
-        <v>57.54000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
@@ -37197,13 +37197,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -37218,13 +37218,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>432.9</v>
+        <v>433</v>
       </c>
       <c r="D60" t="n">
-        <v>997.1</v>
+        <v>997</v>
       </c>
       <c r="E60" t="n">
-        <v>2146.3</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="61">
@@ -37239,13 +37239,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>84.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="D61" t="n">
-        <v>169.1</v>
+        <v>172</v>
       </c>
       <c r="E61" t="n">
-        <v>305.1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62">
@@ -37260,13 +37260,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>71.5</v>
+        <v>72</v>
       </c>
       <c r="D62" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="E62" t="n">
-        <v>289.9</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63">
@@ -37281,13 +37281,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>153.4</v>
+        <v>153</v>
       </c>
       <c r="D63" t="n">
-        <v>331.5000000000001</v>
+        <v>332</v>
       </c>
       <c r="E63" t="n">
-        <v>626.8000000000001</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64">
@@ -37302,13 +37302,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>279.9400000000001</v>
+        <v>280</v>
       </c>
       <c r="D64" t="n">
-        <v>563.6400000000001</v>
+        <v>564</v>
       </c>
       <c r="E64" t="n">
-        <v>1110.9</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="65">
@@ -37323,13 +37323,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>9.600000000000001</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -37344,13 +37344,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>124.8</v>
+        <v>125</v>
       </c>
       <c r="D66" t="n">
-        <v>249.6</v>
+        <v>250</v>
       </c>
       <c r="E66" t="n">
-        <v>441.2</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67">
@@ -37365,13 +37365,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
         <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>44.8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -37386,13 +37386,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" t="n">
-        <v>295.8</v>
+        <v>296</v>
       </c>
       <c r="E68" t="n">
-        <v>568.6999999999999</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69">
@@ -37407,13 +37407,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>232.7</v>
+        <v>233</v>
       </c>
       <c r="D69" t="n">
-        <v>447.6</v>
+        <v>448</v>
       </c>
       <c r="E69" t="n">
-        <v>835.9</v>
+        <v>836</v>
       </c>
     </row>
     <row r="70">
@@ -37428,13 +37428,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.140000000000001</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>6.620000000000001</v>
+        <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>12.74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -37449,13 +37449,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>313.3</v>
+        <v>313</v>
       </c>
       <c r="D71" t="n">
-        <v>644.8</v>
+        <v>645</v>
       </c>
       <c r="E71" t="n">
-        <v>1272.7</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="72">
@@ -37470,13 +37470,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>105.3</v>
+        <v>105</v>
       </c>
       <c r="D72" t="n">
-        <v>219.7</v>
+        <v>220</v>
       </c>
       <c r="E72" t="n">
-        <v>440.7</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73">
@@ -37491,13 +37491,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>148.2</v>
+        <v>148</v>
       </c>
       <c r="D73" t="n">
-        <v>300.3</v>
+        <v>300</v>
       </c>
       <c r="E73" t="n">
-        <v>600.5999999999999</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74">
@@ -37512,13 +37512,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>468.5</v>
+        <v>468</v>
       </c>
       <c r="D74" t="n">
-        <v>850.4</v>
+        <v>850</v>
       </c>
       <c r="E74" t="n">
-        <v>1584.4</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="75">
@@ -37533,10 +37533,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>187.2</v>
+        <v>187</v>
       </c>
       <c r="D75" t="n">
-        <v>408.2</v>
+        <v>408</v>
       </c>
       <c r="E75" t="n">
         <v>858</v>
@@ -37554,13 +37554,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
-        <v>70.23999999999999</v>
+        <v>70</v>
       </c>
       <c r="E76" t="n">
-        <v>136.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -37575,13 +37575,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>137.7</v>
+        <v>138</v>
       </c>
       <c r="D77" t="n">
         <v>282</v>
       </c>
       <c r="E77" t="n">
-        <v>541.1</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78">
@@ -37596,13 +37596,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="D78" t="n">
-        <v>170.7</v>
+        <v>173</v>
       </c>
       <c r="E78" t="n">
-        <v>331.5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79">
@@ -37617,13 +37617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>915.2</v>
+        <v>915</v>
       </c>
       <c r="D79" t="n">
-        <v>1943.5</v>
+        <v>1944</v>
       </c>
       <c r="E79" t="n">
-        <v>3920.8</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="80">
@@ -37638,13 +37638,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6.880000000000001</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>14.18</v>
+        <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>27.94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -37659,13 +37659,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>413.4</v>
+        <v>413</v>
       </c>
       <c r="D81" t="n">
-        <v>878.8</v>
+        <v>879</v>
       </c>
       <c r="E81" t="n">
-        <v>1804.4</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="82">
@@ -37680,13 +37680,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="D82" t="n">
-        <v>174.6</v>
+        <v>176</v>
       </c>
       <c r="E82" t="n">
-        <v>344.4</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83">
@@ -37701,13 +37701,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>49.40000000000001</v>
+        <v>49</v>
       </c>
       <c r="D83" t="n">
-        <v>105.3</v>
+        <v>105</v>
       </c>
       <c r="E83" t="n">
-        <v>210.6</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84">
@@ -37722,13 +37722,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>176.8</v>
+        <v>177</v>
       </c>
       <c r="D84" t="n">
-        <v>352.3</v>
+        <v>352</v>
       </c>
       <c r="E84" t="n">
-        <v>696.8</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85">
@@ -37746,10 +37746,10 @@
         <v>2503</v>
       </c>
       <c r="D85" t="n">
-        <v>5126.3</v>
+        <v>5126</v>
       </c>
       <c r="E85" t="n">
-        <v>9798.5</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="86">
@@ -37764,13 +37764,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>43.68000000000001</v>
+        <v>44</v>
       </c>
       <c r="D86" t="n">
-        <v>89.52000000000001</v>
+        <v>90</v>
       </c>
       <c r="E86" t="n">
-        <v>178.62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87">
@@ -37785,13 +37785,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17.4</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>34.4</v>
+        <v>32</v>
       </c>
       <c r="E87" t="n">
-        <v>65.40000000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88">
@@ -37806,13 +37806,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>13.78</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>28.86</v>
+        <v>29</v>
       </c>
       <c r="E88" t="n">
-        <v>59.28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89">
@@ -37833,7 +37833,7 @@
         <v>368</v>
       </c>
       <c r="E89" t="n">
-        <v>768.7</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90">
@@ -37854,7 +37854,7 @@
         <v>608</v>
       </c>
       <c r="E90" t="n">
-        <v>1290.5</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="91">
@@ -37890,13 +37890,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>42.78</v>
+        <v>43</v>
       </c>
       <c r="D92" t="n">
-        <v>88.42</v>
+        <v>88</v>
       </c>
       <c r="E92" t="n">
-        <v>180.74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93">
@@ -37911,13 +37911,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>434.04</v>
+        <v>434</v>
       </c>
       <c r="D93" t="n">
-        <v>851.8400000000001</v>
+        <v>852</v>
       </c>
       <c r="E93" t="n">
-        <v>1714.24</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="94">
@@ -37932,13 +37932,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>13.16</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>25.88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -37959,7 +37959,7 @@
         <v>26</v>
       </c>
       <c r="E95" t="n">
-        <v>46.8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
@@ -37974,13 +37974,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>453.7</v>
+        <v>454</v>
       </c>
       <c r="D96" t="n">
-        <v>913.9000000000001</v>
+        <v>914</v>
       </c>
       <c r="E96" t="n">
-        <v>1792.7</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="97">
@@ -37995,13 +37995,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D97" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E97" t="n">
-        <v>933.3</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98">
@@ -38016,13 +38016,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>45.4</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>91.20000000000002</v>
+        <v>92</v>
       </c>
       <c r="E98" t="n">
-        <v>185.02</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99">
@@ -38037,13 +38037,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1140.1</v>
+        <v>1140</v>
       </c>
       <c r="D99" t="n">
-        <v>2389.4</v>
+        <v>2389</v>
       </c>
       <c r="E99" t="n">
-        <v>4656.6</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="100">
@@ -38064,7 +38064,7 @@
         <v>2053</v>
       </c>
       <c r="E100" t="n">
-        <v>4626.7</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="101">
@@ -38079,7 +38079,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1012.7</v>
+        <v>1013</v>
       </c>
       <c r="D101" t="n">
         <v>1950</v>
@@ -38100,13 +38100,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>350.68</v>
+        <v>351</v>
       </c>
       <c r="D102" t="n">
-        <v>707.1800000000001</v>
+        <v>707</v>
       </c>
       <c r="E102" t="n">
-        <v>1422.48</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="103">
@@ -38121,13 +38121,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>400.4</v>
+        <v>400</v>
       </c>
       <c r="D103" t="n">
-        <v>789.1</v>
+        <v>789</v>
       </c>
       <c r="E103" t="n">
-        <v>1544.4</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="104">
@@ -38142,13 +38142,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>678.4000000000001</v>
+        <v>678</v>
       </c>
       <c r="D104" t="n">
-        <v>1386.74</v>
+        <v>1386</v>
       </c>
       <c r="E104" t="n">
-        <v>2794.08</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="105">
@@ -38163,13 +38163,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>227.5</v>
+        <v>228</v>
       </c>
       <c r="D105" t="n">
-        <v>475.8</v>
+        <v>476</v>
       </c>
       <c r="E105" t="n">
-        <v>973.7</v>
+        <v>974</v>
       </c>
     </row>
     <row r="106">
@@ -38184,13 +38184,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>231.9667929292929</v>
+        <v>232</v>
       </c>
       <c r="D106" t="n">
-        <v>488.4167929292929</v>
+        <v>488</v>
       </c>
       <c r="E106" t="n">
-        <v>1017.416792929293</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="107">
@@ -38205,13 +38205,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>648.0029438612506</v>
+        <v>648</v>
       </c>
       <c r="D107" t="n">
-        <v>1374.802943861251</v>
+        <v>1375</v>
       </c>
       <c r="E107" t="n">
-        <v>2889.35294386125</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="108">
@@ -38229,10 +38229,10 @@
         <v>117</v>
       </c>
       <c r="D108" t="n">
-        <v>241.8</v>
+        <v>242</v>
       </c>
       <c r="E108" t="n">
-        <v>490.1</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109">
@@ -38247,13 +38247,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>27.62</v>
+        <v>28</v>
       </c>
       <c r="E109" t="n">
-        <v>55.26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
@@ -38268,13 +38268,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>250.9</v>
+        <v>251</v>
       </c>
       <c r="D110" t="n">
-        <v>534.3</v>
+        <v>534</v>
       </c>
       <c r="E110" t="n">
-        <v>1099.8</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="111">
@@ -38289,13 +38289,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>62.40000000000001</v>
+        <v>62</v>
       </c>
       <c r="D111" t="n">
         <v>143</v>
       </c>
       <c r="E111" t="n">
-        <v>323.7</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112">
@@ -38310,13 +38310,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" t="n">
-        <v>726.3</v>
+        <v>723</v>
       </c>
       <c r="E112" t="n">
-        <v>1442.6</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="113">
@@ -38331,13 +38331,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D113" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E113" t="n">
-        <v>853.9</v>
+        <v>862</v>
       </c>
     </row>
     <row r="114">
@@ -38352,13 +38352,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>23.042</v>
+        <v>23</v>
       </c>
       <c r="D114" t="n">
-        <v>47.122</v>
+        <v>47</v>
       </c>
       <c r="E114" t="n">
-        <v>94.27200000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115">
@@ -38373,13 +38373,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>105.895</v>
+        <v>106</v>
       </c>
       <c r="D115" t="n">
-        <v>218.105</v>
+        <v>218</v>
       </c>
       <c r="E115" t="n">
-        <v>437.5749999999999</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116">
@@ -38394,13 +38394,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>46.16</v>
+        <v>46</v>
       </c>
       <c r="D116" t="n">
-        <v>93.00999999999999</v>
+        <v>93</v>
       </c>
       <c r="E116" t="n">
-        <v>186.3</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117">
@@ -38415,13 +38415,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>13.254</v>
+        <v>13</v>
       </c>
       <c r="D117" t="n">
-        <v>26.448</v>
+        <v>26</v>
       </c>
       <c r="E117" t="n">
-        <v>54.27800000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118">
@@ -38436,13 +38436,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>18.514</v>
+        <v>19</v>
       </c>
       <c r="D118" t="n">
-        <v>38.57599999999999</v>
+        <v>39</v>
       </c>
       <c r="E118" t="n">
-        <v>84.01599999999999</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
@@ -38457,13 +38457,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>43.04909090909091</v>
+        <v>43</v>
       </c>
       <c r="D119" t="n">
-        <v>79.18909090909091</v>
+        <v>79</v>
       </c>
       <c r="E119" t="n">
-        <v>155.1890909090909</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
@@ -38478,13 +38478,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>48.36</v>
+        <v>48</v>
       </c>
       <c r="D120" t="n">
-        <v>95.90900000000001</v>
+        <v>96</v>
       </c>
       <c r="E120" t="n">
-        <v>188.928</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121">
@@ -38499,13 +38499,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>13.51</v>
+        <v>14</v>
       </c>
       <c r="D121" t="n">
-        <v>29.68</v>
+        <v>30</v>
       </c>
       <c r="E121" t="n">
-        <v>62.77500000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122">
@@ -38520,13 +38520,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>50.185</v>
+        <v>50</v>
       </c>
       <c r="D122" t="n">
-        <v>106.935</v>
+        <v>107</v>
       </c>
       <c r="E122" t="n">
-        <v>214.375</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123">
@@ -38541,13 +38541,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21.86</v>
+        <v>22</v>
       </c>
       <c r="D123" t="n">
-        <v>48.13</v>
+        <v>48</v>
       </c>
       <c r="E123" t="n">
-        <v>100.67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124">
@@ -38562,13 +38562,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>45.057</v>
+        <v>45</v>
       </c>
       <c r="D124" t="n">
-        <v>91.95700000000001</v>
+        <v>92</v>
       </c>
       <c r="E124" t="n">
-        <v>182.03</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125">
@@ -38583,13 +38583,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>44.745</v>
+        <v>45</v>
       </c>
       <c r="D125" t="n">
-        <v>92.03999999999999</v>
+        <v>92</v>
       </c>
       <c r="E125" t="n">
-        <v>186.11</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126">
@@ -39058,7 +39058,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
@@ -39098,7 +39098,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>32</v>
@@ -39138,7 +39138,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
@@ -39338,7 +39338,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>31</v>
@@ -39378,7 +39378,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -42893,7 +42893,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E9" t="n">
         <v>92</v>
@@ -43013,7 +43013,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -43053,7 +43053,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="n">
         <v>88</v>
@@ -43093,7 +43093,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
         <v>82</v>
@@ -43133,7 +43133,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E15" t="n">
         <v>80</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>84</v>
@@ -43213,7 +43213,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" t="n">
         <v>75</v>
@@ -47870,7 +47870,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" t="n">
         <v>178</v>
@@ -49012,7 +49012,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E2" t="n">
         <v>175</v>
@@ -49052,7 +49052,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" t="n">
         <v>132</v>
@@ -49092,7 +49092,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" t="n">
         <v>123</v>
@@ -49132,7 +49132,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
         <v>118</v>
@@ -49212,7 +49212,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="n">
         <v>114</v>
@@ -49292,7 +49292,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" t="n">
         <v>110</v>
@@ -49332,7 +49332,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
         <v>108</v>
@@ -49372,7 +49372,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -49612,7 +49612,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -49883,7 +49883,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -51185,7 +51185,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -54389,7 +54389,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
@@ -57744,7 +57744,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -57784,7 +57784,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E8" t="n">
         <v>354</v>
@@ -57864,7 +57864,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E10" t="n">
         <v>353</v>
@@ -57904,7 +57904,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E11" t="n">
         <v>346</v>
@@ -57944,7 +57944,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E12" t="n">
         <v>343</v>
@@ -58024,7 +58024,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E14" t="n">
         <v>333</v>
@@ -58104,7 +58104,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E16" t="n">
         <v>321</v>
@@ -58144,7 +58144,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E17" t="n">
         <v>314</v>
@@ -58775,7 +58775,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -58815,7 +58815,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -67187,7 +67187,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
         <v>106</v>
@@ -67227,7 +67227,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>105</v>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
         <v>103</v>
@@ -67307,7 +67307,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
         <v>98</v>
@@ -68609,7 +68609,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
         <v>45</v>
@@ -68649,7 +68649,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
         <v>44</v>
@@ -68689,7 +68689,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
         <v>43</v>
@@ -68769,7 +68769,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -69991,7 +69991,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -70071,7 +70071,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -70111,7 +70111,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
         <v>39</v>
@@ -70342,7 +70342,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
@@ -74608,7 +74608,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -74888,7 +74888,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -74928,7 +74928,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -74968,7 +74968,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -75008,7 +75008,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -75048,7 +75048,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -75208,7 +75208,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -76390,7 +76390,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
         <v>31</v>
@@ -76430,7 +76430,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
@@ -76470,7 +76470,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
@@ -76510,7 +76510,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
         <v>29</v>
@@ -76550,7 +76550,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
@@ -76590,7 +76590,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>29</v>
@@ -76630,7 +76630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
@@ -79274,7 +79274,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -79314,7 +79314,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -79354,7 +79354,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -79394,7 +79394,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -79434,7 +79434,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -79665,7 +79665,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -84962,7 +84962,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" t="n">
         <v>85</v>
@@ -85162,7 +85162,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
         <v>78</v>
@@ -87135,7 +87135,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -87175,7 +87175,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
         <v>26</v>
@@ -87255,7 +87255,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
@@ -87295,7 +87295,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -87646,7 +87646,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -87686,7 +87686,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -87766,7 +87766,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
         <v>18</v>
@@ -87846,7 +87846,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
@@ -87926,7 +87926,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -91321,7 +91321,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
         <v>17</v>
@@ -91361,7 +91361,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
         <v>17</v>
@@ -91561,7 +91561,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -94516,7 +94516,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -95938,7 +95938,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
@@ -95978,7 +95978,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
         <v>38</v>
@@ -96378,7 +96378,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -99653,7 +99653,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" t="n">
         <v>166</v>
@@ -102377,7 +102377,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -102417,7 +102417,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
         <v>47</v>
@@ -102497,7 +102497,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>47</v>
@@ -102617,7 +102617,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
@@ -103288,7 +103288,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v>21</v>
@@ -103528,7 +103528,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -104550,7 +104550,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" t="n">
         <v>279</v>
@@ -104590,7 +104590,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E5" t="n">
         <v>272</v>
@@ -104670,7 +104670,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" t="n">
         <v>257</v>
@@ -104710,7 +104710,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E8" t="n">
         <v>283</v>
@@ -104750,7 +104750,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E9" t="n">
         <v>286</v>
@@ -104790,7 +104790,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E10" t="n">
         <v>272</v>
@@ -104870,7 +104870,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E12" t="n">
         <v>285</v>
@@ -104910,7 +104910,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" t="n">
         <v>273</v>
@@ -104950,7 +104950,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E14" t="n">
         <v>277</v>

--- a/consolidated_forecast_WITH_PO.xlsx
+++ b/consolidated_forecast_WITH_PO.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -607,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -647,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -727,7 +727,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -767,7 +767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -807,7 +807,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -847,7 +847,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -887,7 +887,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -927,7 +927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -967,7 +967,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -2443,13 +2443,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="E2" t="n">
-        <v>1854</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="3">
@@ -2464,13 +2464,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="D3" t="n">
-        <v>879</v>
+        <v>683</v>
       </c>
       <c r="E3" t="n">
-        <v>1670</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast_WITH_PO.xlsx
+++ b/consolidated_forecast_WITH_PO.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -2443,13 +2443,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="D2" t="n">
-        <v>972</v>
+        <v>1037</v>
       </c>
       <c r="E2" t="n">
-        <v>1895</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="3">
@@ -2464,13 +2464,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D3" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E3" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_forecast_WITH_PO.xlsx
+++ b/consolidated_forecast_WITH_PO.xlsx
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -5600,7 +5600,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -8013,7 +8013,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -8213,7 +8213,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -10026,7 +10026,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -24797,7 +24797,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -24877,7 +24877,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -24917,7 +24917,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -24997,7 +24997,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -25037,7 +25037,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -25077,7 +25077,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -25117,7 +25117,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -25157,7 +25157,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -25237,7 +25237,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -25277,7 +25277,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>560</v>
+        <v>643</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -25357,7 +25357,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -25397,7 +25397,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -26054,13 +26054,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D3" t="n">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="E3" t="n">
-        <v>1790</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4">
@@ -26099,10 +26099,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -26159,13 +26159,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D8" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E8" t="n">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
@@ -26180,13 +26180,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D9" t="n">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E9" t="n">
-        <v>1479</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="10">
@@ -26204,10 +26204,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -26222,13 +26222,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D11" t="n">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E11" t="n">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="12">
@@ -26243,13 +26243,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -26285,13 +26285,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2519</v>
+        <v>2632</v>
       </c>
       <c r="D14" t="n">
-        <v>4912</v>
+        <v>4993</v>
       </c>
       <c r="E14" t="n">
-        <v>9457</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="15">
@@ -26309,10 +26309,10 @@
         <v>144</v>
       </c>
       <c r="D15" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E15" t="n">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16">
@@ -26375,7 +26375,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -26396,7 +26396,7 @@
         <v>378</v>
       </c>
       <c r="E19" t="n">
-        <v>682</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20">
@@ -26432,13 +26432,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D21" t="n">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="E21" t="n">
-        <v>1978</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="22">
@@ -26474,13 +26474,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="D23" t="n">
-        <v>672</v>
+        <v>485</v>
       </c>
       <c r="E23" t="n">
-        <v>1277</v>
+        <v>971</v>
       </c>
     </row>
     <row r="24">
@@ -26537,13 +26537,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>864</v>
+        <v>812</v>
       </c>
       <c r="D26" t="n">
-        <v>1733</v>
+        <v>1609</v>
       </c>
       <c r="E26" t="n">
-        <v>3348</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="27">
@@ -26579,13 +26579,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D28" t="n">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="E28" t="n">
-        <v>1317</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="29">
@@ -26600,13 +26600,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D29" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E29" t="n">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30">
@@ -26621,13 +26621,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
         <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -26663,13 +26663,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="D32" t="n">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E32" t="n">
-        <v>2114</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="33">
@@ -26684,13 +26684,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="D33" t="n">
-        <v>894</v>
+        <v>864</v>
       </c>
       <c r="E33" t="n">
-        <v>1644</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="34">
@@ -26708,7 +26708,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
         <v>31</v>
@@ -26771,7 +26771,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -26792,10 +26792,10 @@
         <v>53</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E38" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
@@ -26810,13 +26810,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="D39" t="n">
-        <v>2931</v>
+        <v>2920</v>
       </c>
       <c r="E39" t="n">
-        <v>5546</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="40">
@@ -26834,10 +26834,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -26855,10 +26855,10 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -26897,7 +26897,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="n">
         <v>175</v>
@@ -26921,7 +26921,7 @@
         <v>72</v>
       </c>
       <c r="E44" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
@@ -26936,10 +26936,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" t="n">
         <v>38</v>
@@ -27002,10 +27002,10 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -27020,13 +27020,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E49" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -27041,13 +27041,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D50" t="n">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="E50" t="n">
-        <v>2175</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="51">
@@ -27065,10 +27065,10 @@
         <v>196</v>
       </c>
       <c r="D51" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E51" t="n">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52">
@@ -27125,13 +27125,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D54" t="n">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E54" t="n">
-        <v>369</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
@@ -27152,7 +27152,7 @@
         <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -27173,7 +27173,7 @@
         <v>31</v>
       </c>
       <c r="E56" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -27209,13 +27209,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D58" t="n">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="E58" t="n">
-        <v>1136</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="59">
@@ -27233,10 +27233,10 @@
         <v>63</v>
       </c>
       <c r="D59" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -27272,13 +27272,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D61" t="n">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E61" t="n">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62">
@@ -27293,13 +27293,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D62" t="n">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E62" t="n">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="63">
@@ -27341,7 +27341,7 @@
         <v>107</v>
       </c>
       <c r="E64" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -27356,13 +27356,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
@@ -27404,7 +27404,7 @@
         <v>209</v>
       </c>
       <c r="E67" t="n">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68">
@@ -27440,13 +27440,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D69" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E69" t="n">
-        <v>738</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70">
@@ -27461,13 +27461,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E70" t="n">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71">
@@ -27482,13 +27482,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D71" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E71" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72">
@@ -27503,13 +27503,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="D72" t="n">
-        <v>679</v>
+        <v>733</v>
       </c>
       <c r="E72" t="n">
-        <v>1323</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="73">
@@ -27545,13 +27545,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D74" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E74" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
@@ -27572,7 +27572,7 @@
         <v>185</v>
       </c>
       <c r="E75" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76">
@@ -27587,13 +27587,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" t="n">
         <v>219</v>
       </c>
       <c r="E76" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77">
@@ -27629,13 +27629,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -27671,13 +27671,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D80" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E80" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D81" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E81" t="n">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
@@ -27713,13 +27713,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D82" t="n">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="E82" t="n">
-        <v>1132</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="83">
@@ -27734,13 +27734,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2522</v>
+        <v>2193</v>
       </c>
       <c r="D83" t="n">
-        <v>4685</v>
+        <v>4268</v>
       </c>
       <c r="E83" t="n">
-        <v>8555</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="84">
@@ -27755,13 +27755,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85">
@@ -27803,7 +27803,7 @@
         <v>24</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87">
@@ -27839,13 +27839,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="D88" t="n">
-        <v>700</v>
+        <v>524</v>
       </c>
       <c r="E88" t="n">
-        <v>1360</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="89">
@@ -27860,13 +27860,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -27881,13 +27881,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D90" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E90" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
@@ -27902,13 +27902,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>667</v>
+        <v>559</v>
       </c>
       <c r="D91" t="n">
-        <v>1134</v>
+        <v>1164</v>
       </c>
       <c r="E91" t="n">
-        <v>1733</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="92">
@@ -27929,7 +27929,7 @@
         <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -27965,13 +27965,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="D94" t="n">
-        <v>1117</v>
+        <v>993</v>
       </c>
       <c r="E94" t="n">
-        <v>1756</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="95">
@@ -27986,13 +27986,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="D95" t="n">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E95" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="96">
@@ -28007,13 +28007,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D96" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E96" t="n">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97">
@@ -28028,13 +28028,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1488</v>
+        <v>844</v>
       </c>
       <c r="D97" t="n">
-        <v>2858</v>
+        <v>1895</v>
       </c>
       <c r="E97" t="n">
-        <v>5318</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="98">
@@ -28049,13 +28049,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1284</v>
+        <v>793</v>
       </c>
       <c r="D98" t="n">
-        <v>2619</v>
+        <v>1970</v>
       </c>
       <c r="E98" t="n">
-        <v>5070</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="99">
@@ -28070,13 +28070,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>981</v>
+        <v>948</v>
       </c>
       <c r="D99" t="n">
-        <v>1968</v>
+        <v>1934</v>
       </c>
       <c r="E99" t="n">
-        <v>3759</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="100">
@@ -28091,13 +28091,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="D100" t="n">
-        <v>687</v>
+        <v>841</v>
       </c>
       <c r="E100" t="n">
-        <v>1405</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="101">
@@ -28112,13 +28112,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="D101" t="n">
-        <v>484</v>
+        <v>738</v>
       </c>
       <c r="E101" t="n">
-        <v>961</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="102">
@@ -28133,13 +28133,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D102" t="n">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="E102" t="n">
-        <v>2608</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="103">
@@ -28175,13 +28175,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D104" t="n">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="E104" t="n">
-        <v>523</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105">
@@ -28202,7 +28202,7 @@
         <v>1329</v>
       </c>
       <c r="E105" t="n">
-        <v>2674</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="106">
@@ -28217,13 +28217,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D106" t="n">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E106" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107">
@@ -28244,7 +28244,7 @@
         <v>19</v>
       </c>
       <c r="E107" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
@@ -28259,13 +28259,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="D108" t="n">
-        <v>333</v>
+        <v>482</v>
       </c>
       <c r="E108" t="n">
-        <v>585</v>
+        <v>949</v>
       </c>
     </row>
     <row r="109">
@@ -28280,13 +28280,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D109" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E109" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
@@ -28301,13 +28301,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D110" t="n">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="E110" t="n">
-        <v>1808</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="111">
@@ -28322,13 +28322,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D111" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E111" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="112">
@@ -28978,7 +28978,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -29018,7 +29018,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -29138,7 +29138,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -29178,7 +29178,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -29218,7 +29218,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -29258,7 +29258,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -31982,7 +31982,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -32062,7 +32062,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -32102,7 +32102,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -32142,7 +32142,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -32182,7 +32182,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -32222,7 +32222,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -32262,7 +32262,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -33124,7 +33124,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -33524,7 +33524,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -33644,7 +33644,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -33684,7 +33684,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -33795,7 +33795,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -33835,7 +33835,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -33995,7 +33995,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -34035,7 +34035,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -35217,7 +35217,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -35257,7 +35257,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -35297,7 +35297,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -35337,7 +35337,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -35377,7 +35377,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -35417,7 +35417,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -35457,7 +35457,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -35497,7 +35497,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -35537,7 +35537,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -35577,7 +35577,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -35617,7 +35617,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -35657,7 +35657,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -35697,7 +35697,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -35737,7 +35737,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -35777,7 +35777,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -35817,7 +35817,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -37350,7 +37350,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -37390,7 +37390,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -37430,7 +37430,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -37470,7 +37470,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -37510,7 +37510,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -37550,7 +37550,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -37590,7 +37590,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -37630,7 +37630,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -37670,7 +37670,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -37710,7 +37710,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -37750,7 +37750,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -37790,7 +37790,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -37830,7 +37830,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -37950,7 +37950,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -38812,7 +38812,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -38852,7 +38852,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -38892,7 +38892,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -38932,7 +38932,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -38972,7 +38972,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -39012,7 +39012,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -39052,7 +39052,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -39092,7 +39092,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -39483,7 +39483,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -39563,7 +39563,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -39603,7 +39603,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -39643,7 +39643,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -39683,7 +39683,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -39723,7 +39723,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -39803,7 +39803,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -39843,7 +39843,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -39883,7 +39883,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -39923,7 +39923,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -39963,7 +39963,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -40003,7 +40003,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -40043,7 +40043,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -40083,7 +40083,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -40594,7 +40594,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -40634,7 +40634,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -42367,7 +42367,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -42607,7 +42607,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -42687,7 +42687,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -42767,7 +42767,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -42847,7 +42847,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -42927,7 +42927,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -43038,7 +43038,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -43078,7 +43078,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -43118,7 +43118,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -43398,7 +43398,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -43558,7 +43558,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -43598,7 +43598,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -43638,7 +43638,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -43789,7 +43789,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -46593,7 +46593,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -46633,7 +46633,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -46793,7 +46793,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -46833,7 +46833,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -46873,7 +46873,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -47424,7 +47424,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -47464,7 +47464,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -47504,7 +47504,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -47544,7 +47544,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -47584,7 +47584,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -47624,7 +47624,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -47664,7 +47664,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -47704,7 +47704,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -47744,7 +47744,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -49597,7 +49597,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -49637,7 +49637,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -49677,7 +49677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -49717,7 +49717,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -49757,7 +49757,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -49837,7 +49837,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -49877,7 +49877,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -49917,7 +49917,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -49957,7 +49957,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -49997,7 +49997,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -50037,7 +50037,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -51690,7 +51690,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -52010,7 +52010,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -52321,7 +52321,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -52361,7 +52361,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -52601,7 +52601,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -53703,7 +53703,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -53743,7 +53743,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -53783,7 +53783,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -53823,7 +53823,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -55245,7 +55245,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -55285,7 +55285,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -55325,7 +55325,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -55365,7 +55365,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -55956,7 +55956,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -55996,7 +55996,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -56036,7 +56036,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -56116,7 +56116,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -56236,7 +56236,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -57538,7 +57538,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -57578,7 +57578,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -57618,7 +57618,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -57658,7 +57658,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -57698,7 +57698,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -57738,7 +57738,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -57778,7 +57778,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -57818,7 +57818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -57858,7 +57858,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -59391,7 +59391,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -59431,7 +59431,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -59471,7 +59471,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -59511,7 +59511,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -59551,7 +59551,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -59591,7 +59591,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -59631,7 +59631,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -59671,7 +59671,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -59711,7 +59711,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -59751,7 +59751,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -59791,7 +59791,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -59831,7 +59831,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -59871,7 +59871,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -59911,7 +59911,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -59951,7 +59951,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -59991,7 +59991,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -60222,7 +60222,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -60262,7 +60262,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -60382,7 +60382,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -60422,7 +60422,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -60462,7 +60462,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -60502,7 +60502,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -60542,7 +60542,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -60582,7 +60582,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -60702,7 +60702,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -60893,7 +60893,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -61373,7 +61373,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -62355,7 +62355,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -62395,7 +62395,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -62435,7 +62435,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -62475,7 +62475,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -62555,7 +62555,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -62595,7 +62595,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -62635,7 +62635,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -62675,7 +62675,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -62755,7 +62755,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -63226,7 +63226,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -65079,7 +65079,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -65119,7 +65119,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -65159,7 +65159,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -65199,7 +65199,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -65239,7 +65239,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -65279,7 +65279,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -65319,7 +65319,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -65359,7 +65359,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -65399,7 +65399,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -65439,7 +65439,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -65479,7 +65479,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -65599,7 +65599,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -65639,7 +65639,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -65790,7 +65790,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -65830,7 +65830,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -65870,7 +65870,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -65950,7 +65950,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -65990,7 +65990,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -66030,7 +66030,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -66070,7 +66070,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -67692,7 +67692,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -67732,7 +67732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -67772,7 +67772,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -67923,7 +67923,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -68003,7 +68003,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -68043,7 +68043,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -68083,7 +68083,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -68123,7 +68123,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -68163,7 +68163,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -68243,7 +68243,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -68283,7 +68283,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -69665,7 +69665,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -69705,7 +69705,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -69825,7 +69825,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -69865,7 +69865,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -71327,7 +71327,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -71478,7 +71478,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -71518,7 +71518,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -71558,7 +71558,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -71598,7 +71598,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -71638,7 +71638,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -71678,7 +71678,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -71878,7 +71878,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -71998,7 +71998,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -72229,7 +72229,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -72589,7 +72589,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -72629,7 +72629,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -72669,7 +72669,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -72709,7 +72709,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -72749,7 +72749,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -72789,7 +72789,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -72900,7 +72900,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -72940,7 +72940,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -73611,7 +73611,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -73651,7 +73651,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -73691,7 +73691,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -73731,7 +73731,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -73771,7 +73771,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -73811,7 +73811,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -73851,7 +73851,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -73931,7 +73931,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -73971,7 +73971,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -74011,7 +74011,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -74051,7 +74051,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -74091,7 +74091,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -74131,7 +74131,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -74171,7 +74171,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -74211,7 +74211,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -75033,7 +75033,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -76184,7 +76184,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -76224,7 +76224,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -76264,7 +76264,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -76304,7 +76304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -76344,7 +76344,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -76455,7 +76455,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -76495,7 +76495,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -76575,7 +76575,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -76735,7 +76735,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -76815,7 +76815,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -76935,7 +76935,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -76975,7 +76975,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -79339,7 +79339,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -79419,7 +79419,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -79459,7 +79459,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -79499,7 +79499,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -79539,7 +79539,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -79619,7 +79619,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -79659,7 +79659,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -79699,7 +79699,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -79739,7 +79739,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -79779,7 +79779,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -79819,7 +79819,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -79859,7 +79859,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -79899,7 +79899,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -80010,7 +80010,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -80290,7 +80290,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -80330,7 +80330,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -80370,7 +80370,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -80530,7 +80530,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -80570,7 +80570,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -80610,7 +80610,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -80721,7 +80721,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -80761,7 +80761,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -80801,7 +80801,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -80841,7 +80841,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -80881,7 +80881,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -80921,7 +80921,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -81041,7 +81041,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -81081,7 +81081,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -81121,7 +81121,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -81161,7 +81161,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -81201,7 +81201,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -81241,7 +81241,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -81281,7 +81281,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -81321,7 +81321,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -81432,7 +81432,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -81472,7 +81472,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -81512,7 +81512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -81552,7 +81552,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -81592,7 +81592,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -82143,7 +82143,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -82183,7 +82183,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>708</v>
+        <v>632</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -82223,7 +82223,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -82263,7 +82263,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>567</v>
+        <v>427</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -82303,7 +82303,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>560</v>
+        <v>472</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -82463,7 +82463,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -82663,7 +82663,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -82703,7 +82703,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>462</v>
+        <v>283</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -82743,7 +82743,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -82854,7 +82854,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -82894,7 +82894,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -82934,7 +82934,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -82974,7 +82974,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -83014,7 +83014,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -83054,7 +83054,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -83094,7 +83094,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -83134,7 +83134,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -83174,7 +83174,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -83214,7 +83214,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -83254,7 +83254,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -83294,7 +83294,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -83334,7 +83334,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -83374,7 +83374,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -83414,7 +83414,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -83454,7 +83454,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -85698,7 +85698,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -85778,7 +85778,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -85818,7 +85818,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -85858,7 +85858,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -85898,7 +85898,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -86058,7 +86058,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -86098,7 +86098,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -86138,7 +86138,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -86298,7 +86298,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -87200,7 +87200,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -87240,7 +87240,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -87280,7 +87280,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -87320,7 +87320,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -87360,7 +87360,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -87440,7 +87440,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -87480,7 +87480,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -87520,7 +87520,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -87560,7 +87560,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -87600,7 +87600,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -87640,7 +87640,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -87680,7 +87680,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -87720,7 +87720,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -88111,7 +88111,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -88151,7 +88151,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -88191,7 +88191,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -88542,7 +88542,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -88582,7 +88582,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -88782,7 +88782,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -88822,7 +88822,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -88862,7 +88862,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -88902,7 +88902,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -88942,7 +88942,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -88982,7 +88982,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -89022,7 +89022,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -89062,7 +89062,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -89102,7 +89102,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -89142,7 +89142,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -90755,7 +90755,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -90795,7 +90795,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -90835,7 +90835,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -91075,7 +91075,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -91115,7 +91115,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -91155,7 +91155,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -91195,7 +91195,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -91235,7 +91235,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -91275,7 +91275,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -91386,7 +91386,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -91426,7 +91426,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -91466,7 +91466,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -91546,7 +91546,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -91626,7 +91626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -91666,7 +91666,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -92137,7 +92137,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -92177,7 +92177,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -92217,7 +92217,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -92257,7 +92257,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -92297,7 +92297,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -92337,7 +92337,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -92377,7 +92377,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -92417,7 +92417,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -92457,7 +92457,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -92497,7 +92497,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -92537,7 +92537,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -92577,7 +92577,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -92657,7 +92657,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -92697,7 +92697,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -92808,7 +92808,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -92848,7 +92848,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -92888,7 +92888,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -92928,7 +92928,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>356</v>
+        <v>192</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -92968,7 +92968,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -93008,7 +93008,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -93168,7 +93168,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -93208,7 +93208,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>318</v>
+        <v>172</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -93248,7 +93248,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -93368,7 +93368,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -93408,7 +93408,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -93519,7 +93519,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -93559,7 +93559,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -93599,7 +93599,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -93639,7 +93639,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -93679,7 +93679,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>342</v>
+        <v>184</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -93839,7 +93839,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -93879,7 +93879,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -93919,7 +93919,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -94079,7 +94079,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -94119,7 +94119,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>287</v>
+        <v>155</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -94230,7 +94230,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -94270,7 +94270,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -94310,7 +94310,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -94981,7 +94981,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -95021,7 +95021,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -95061,7 +95061,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -95101,7 +95101,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -95141,7 +95141,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -95181,7 +95181,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -95341,7 +95341,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -95381,7 +95381,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -95421,7 +95421,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -95501,7 +95501,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
         <v/>

--- a/consolidated_forecast_WITH_PO.xlsx
+++ b/consolidated_forecast_WITH_PO.xlsx
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -5610,7 +5610,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -8534,7 +8534,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -9014,7 +9014,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -9876,7 +9876,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -10116,7 +10116,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -10587,7 +10587,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -10707,7 +10707,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -11538,7 +11538,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -11578,7 +11578,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -11698,7 +11698,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -11778,7 +11778,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -11898,7 +11898,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -12009,7 +12009,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -12089,7 +12089,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -12169,7 +12169,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -12209,7 +12209,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -12289,7 +12289,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -12369,7 +12369,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -12409,7 +12409,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -12449,7 +12449,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -12489,7 +12489,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -12529,7 +12529,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -12569,7 +12569,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -12609,7 +12609,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -12720,7 +12720,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -12760,7 +12760,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -12800,7 +12800,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -12840,7 +12840,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -12960,7 +12960,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -13000,7 +13000,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -13120,7 +13120,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -13160,7 +13160,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -13711,7 +13711,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -13911,7 +13911,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -13951,7 +13951,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -14853,7 +14853,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -14893,7 +14893,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -14933,7 +14933,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -14973,7 +14973,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -15013,7 +15013,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -15133,7 +15133,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -15173,7 +15173,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -15213,7 +15213,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -15253,7 +15253,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -15373,7 +15373,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -15413,7 +15413,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -15604,7 +15604,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -15764,7 +15764,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -15804,7 +15804,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -15964,7 +15964,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -16004,7 +16004,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -16044,7 +16044,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -16275,7 +16275,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -16315,7 +16315,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -16355,7 +16355,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -16755,7 +16755,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -16875,7 +16875,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -17857,7 +17857,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -17897,7 +17897,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -17937,7 +17937,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -24847,7 +24847,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -24927,7 +24927,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -25007,7 +25007,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -25087,7 +25087,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -25167,7 +25167,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -25247,7 +25247,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -25327,7 +25327,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -25407,7 +25407,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -32748,7 +32748,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -32788,7 +32788,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -32828,7 +32828,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -32868,7 +32868,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -32908,7 +32908,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -32948,7 +32948,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -33068,7 +33068,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -33108,7 +33108,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -33148,7 +33148,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -33188,7 +33188,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -33228,7 +33228,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -33867,7 +33867,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -33891,7 +33891,7 @@
         <v>408</v>
       </c>
       <c r="E3" t="n">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
@@ -33990,13 +33990,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D8" t="n">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="E8" t="n">
-        <v>998</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9">
@@ -34014,10 +34014,10 @@
         <v>502</v>
       </c>
       <c r="D9" t="n">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="E9" t="n">
-        <v>1832</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="10">
@@ -34038,7 +34038,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -34080,7 +34080,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -34116,13 +34116,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2498</v>
+        <v>2587</v>
       </c>
       <c r="D14" t="n">
-        <v>4964</v>
+        <v>5059</v>
       </c>
       <c r="E14" t="n">
-        <v>9919</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="15">
@@ -34137,13 +34137,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E15" t="n">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16">
@@ -34203,7 +34203,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
@@ -34227,7 +34227,7 @@
         <v>348</v>
       </c>
       <c r="E19" t="n">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20">
@@ -34263,13 +34263,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D21" t="n">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="E21" t="n">
-        <v>1926</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="22">
@@ -34305,13 +34305,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="D23" t="n">
-        <v>464</v>
+        <v>654</v>
       </c>
       <c r="E23" t="n">
-        <v>925</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="24">
@@ -34368,13 +34368,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D26" t="n">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="E26" t="n">
-        <v>2959</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="27">
@@ -34410,13 +34410,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D28" t="n">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E28" t="n">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="29">
@@ -34431,13 +34431,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E29" t="n">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="30">
@@ -34455,10 +34455,10 @@
         <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -34494,13 +34494,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D32" t="n">
-        <v>1179</v>
+        <v>1121</v>
       </c>
       <c r="E32" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="33">
@@ -34515,13 +34515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D33" t="n">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="E33" t="n">
-        <v>1417</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="34">
@@ -34536,13 +34536,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
         <v>18</v>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -34605,7 +34605,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -34620,7 +34620,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="n">
         <v>101</v>
@@ -34641,13 +34641,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1144</v>
+        <v>1021</v>
       </c>
       <c r="D39" t="n">
-        <v>2180</v>
+        <v>2165</v>
       </c>
       <c r="E39" t="n">
-        <v>4176</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="40">
@@ -34665,7 +34665,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -34689,7 +34689,7 @@
         <v>31</v>
       </c>
       <c r="E41" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -34725,13 +34725,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E43" t="n">
-        <v>189</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
@@ -34749,10 +34749,10 @@
         <v>21</v>
       </c>
       <c r="D44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -34770,10 +34770,10 @@
         <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
@@ -34788,13 +34788,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D46" t="n">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="E46" t="n">
-        <v>1401</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="47">
@@ -34812,10 +34812,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
         <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -34833,10 +34833,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -34851,13 +34851,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E49" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
@@ -34896,10 +34896,10 @@
         <v>129</v>
       </c>
       <c r="D51" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E51" t="n">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52">
@@ -34917,10 +34917,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -34935,13 +34935,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D53" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E53" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54">
@@ -34956,13 +34956,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D54" t="n">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E54" t="n">
-        <v>272</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55">
@@ -34977,13 +34977,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -34998,13 +34998,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
@@ -35040,13 +35040,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D58" t="n">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="E58" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59">
@@ -35082,13 +35082,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
@@ -35103,13 +35103,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E61" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -35124,13 +35124,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D62" t="n">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="E62" t="n">
-        <v>1302</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="63">
@@ -35145,13 +35145,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -35166,13 +35166,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D64" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
@@ -35190,10 +35190,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
@@ -35211,10 +35211,10 @@
         <v>82</v>
       </c>
       <c r="D66" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E66" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67">
@@ -35271,13 +35271,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D69" t="n">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E69" t="n">
-        <v>1082</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="70">
@@ -35292,13 +35292,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D70" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E70" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71">
@@ -35313,13 +35313,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E71" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72">
@@ -35334,13 +35334,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="D72" t="n">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="E72" t="n">
-        <v>1362</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="73">
@@ -35355,13 +35355,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D73" t="n">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="E73" t="n">
-        <v>449</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74">
@@ -35400,10 +35400,10 @@
         <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76">
@@ -35418,13 +35418,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D76" t="n">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E76" t="n">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77">
@@ -35442,10 +35442,10 @@
         <v>576</v>
       </c>
       <c r="D77" t="n">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="E77" t="n">
-        <v>2357</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="78">
@@ -35481,13 +35481,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D79" t="n">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="E79" t="n">
-        <v>1229</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="80">
@@ -35526,10 +35526,10 @@
         <v>28</v>
       </c>
       <c r="D81" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E81" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
@@ -35544,13 +35544,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="D82" t="n">
-        <v>437</v>
+        <v>640</v>
       </c>
       <c r="E82" t="n">
-        <v>903</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="83">
@@ -35565,13 +35565,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1942</v>
+        <v>1851</v>
       </c>
       <c r="D83" t="n">
-        <v>3916</v>
+        <v>3857</v>
       </c>
       <c r="E83" t="n">
-        <v>7271</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="84">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E84" t="n">
         <v>64</v>
@@ -35610,10 +35610,10 @@
         <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -35628,13 +35628,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -35649,13 +35649,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D87" t="n">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E87" t="n">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="88">
@@ -35670,13 +35670,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D88" t="n">
-        <v>670</v>
+        <v>601</v>
       </c>
       <c r="E88" t="n">
-        <v>1317</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="89">
@@ -35691,13 +35691,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -35712,13 +35712,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D90" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E90" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
@@ -35733,13 +35733,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D91" t="n">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="E91" t="n">
-        <v>1737</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="92">
@@ -35754,13 +35754,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -35778,7 +35778,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="n">
         <v>21</v>
@@ -35796,13 +35796,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D94" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E94" t="n">
-        <v>1892</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="95">
@@ -35817,13 +35817,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D95" t="n">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="E95" t="n">
-        <v>723</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96">
@@ -35838,13 +35838,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D96" t="n">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E96" t="n">
-        <v>272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
@@ -35859,13 +35859,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1321</v>
+        <v>1453</v>
       </c>
       <c r="D97" t="n">
-        <v>2623</v>
+        <v>2314</v>
       </c>
       <c r="E97" t="n">
-        <v>4969</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="98">
@@ -35880,13 +35880,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1358</v>
+        <v>1335</v>
       </c>
       <c r="D98" t="n">
-        <v>2656</v>
+        <v>2632</v>
       </c>
       <c r="E98" t="n">
-        <v>5011</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="99">
@@ -35901,13 +35901,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D99" t="n">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="E99" t="n">
-        <v>3875</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="100">
@@ -35922,13 +35922,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D100" t="n">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E100" t="n">
-        <v>1170</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="101">
@@ -35943,13 +35943,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="D101" t="n">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="E101" t="n">
-        <v>1507</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="102">
@@ -35964,13 +35964,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1125</v>
+        <v>1046</v>
       </c>
       <c r="D102" t="n">
-        <v>2326</v>
+        <v>2234</v>
       </c>
       <c r="E102" t="n">
-        <v>4464</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="103">
@@ -35985,13 +35985,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D103" t="n">
-        <v>399</v>
+        <v>515</v>
       </c>
       <c r="E103" t="n">
-        <v>803</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="104">
@@ -36006,13 +36006,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="D104" t="n">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="E104" t="n">
-        <v>711</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105">
@@ -36027,7 +36027,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D105" t="n">
         <v>1068</v>
@@ -36048,13 +36048,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D106" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E106" t="n">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107">
@@ -36090,13 +36090,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D108" t="n">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="E108" t="n">
-        <v>672</v>
+        <v>890</v>
       </c>
     </row>
     <row r="109">
@@ -36114,10 +36114,10 @@
         <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E109" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110">
@@ -36132,13 +36132,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D110" t="n">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="E110" t="n">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="111">
@@ -36153,13 +36153,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D111" t="n">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="E111" t="n">
-        <v>834</v>
+        <v>799</v>
       </c>
     </row>
     <row r="112">
@@ -36174,13 +36174,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D112" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E112" t="n">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113">
@@ -36195,13 +36195,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E113" t="n">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114">
@@ -36216,13 +36216,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E114" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
@@ -36237,13 +36237,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E115" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116">
@@ -36258,13 +36258,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D116" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E116" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
@@ -36279,13 +36279,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D117" t="n">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E117" t="n">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118">
@@ -36300,13 +36300,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
@@ -36321,13 +36321,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D119" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E119" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
@@ -36342,13 +36342,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E120" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121">
@@ -36366,10 +36366,10 @@
         <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E121" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
@@ -39272,7 +39272,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -39312,7 +39312,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -39392,7 +39392,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -39512,7 +39512,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -39552,7 +39552,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -39592,7 +39592,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -40534,7 +40534,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -40574,7 +40574,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -40854,7 +40854,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -40894,7 +40894,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -41125,7 +41125,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -41165,7 +41165,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -41205,7 +41205,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -41245,7 +41245,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -41285,7 +41285,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -41325,7 +41325,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -41365,7 +41365,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -41405,7 +41405,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -41485,7 +41485,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -41525,7 +41525,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -41565,7 +41565,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -41605,7 +41605,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -42587,7 +42587,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -42627,7 +42627,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -42667,7 +42667,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -42707,7 +42707,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -42747,7 +42747,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -42827,7 +42827,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -42867,7 +42867,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -42907,7 +42907,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -42947,7 +42947,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -42987,7 +42987,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -43027,7 +43027,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -43067,7 +43067,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -43107,7 +43107,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -44680,7 +44680,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -44760,7 +44760,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -44800,7 +44800,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -44840,7 +44840,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -44880,7 +44880,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -44960,7 +44960,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -45000,7 +45000,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -45120,7 +45120,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -45160,7 +45160,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -45200,7 +45200,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -45240,7 +45240,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -45280,7 +45280,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -46102,7 +46102,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -46142,7 +46142,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -46182,7 +46182,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -46222,7 +46222,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -46262,7 +46262,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -46853,7 +46853,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -46973,7 +46973,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -47253,7 +47253,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -47293,7 +47293,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -47333,7 +47333,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -47373,7 +47373,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -47413,7 +47413,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -47764,7 +47764,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -47804,7 +47804,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -47844,7 +47844,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -47884,7 +47884,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -47924,7 +47924,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -47964,7 +47964,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -48004,7 +48004,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -49657,7 +49657,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -49817,7 +49817,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -49857,7 +49857,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -49897,7 +49897,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -49937,7 +49937,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -49977,7 +49977,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -50017,7 +50017,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -50057,7 +50057,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -50097,7 +50097,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -50137,7 +50137,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -50177,7 +50177,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -50217,7 +50217,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -50257,7 +50257,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -50368,7 +50368,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -50608,7 +50608,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -50648,7 +50648,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -50808,7 +50808,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -50968,7 +50968,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -51159,7 +51159,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -53572,7 +53572,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -53612,7 +53612,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -54634,7 +54634,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -54674,7 +54674,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -54714,7 +54714,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -54754,7 +54754,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -54794,7 +54794,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -54834,7 +54834,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -54874,7 +54874,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>348</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -54954,7 +54954,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -54994,7 +54994,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -55034,7 +55034,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -55074,7 +55074,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -55114,7 +55114,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -55154,7 +55154,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -55194,7 +55194,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -55234,7 +55234,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -57007,7 +57007,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -57087,7 +57087,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -57247,7 +57247,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -57327,7 +57327,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -58189,7 +58189,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -58229,7 +58229,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -58269,7 +58269,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -58309,7 +58309,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -58349,7 +58349,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -58389,7 +58389,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -58429,7 +58429,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -58589,7 +58589,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -58629,7 +58629,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -58669,7 +58669,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -58709,7 +58709,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -58749,7 +58749,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -58789,7 +58789,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -59020,7 +59020,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -59380,7 +59380,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -59931,7 +59931,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -59971,7 +59971,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -60171,7 +60171,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -60322,7 +60322,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -60362,7 +60362,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -60402,7 +60402,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -60482,7 +60482,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -60562,7 +60562,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -60602,7 +60602,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -61033,7 +61033,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -61193,7 +61193,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -62535,7 +62535,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -64077,7 +64077,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -64157,7 +64157,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -64277,7 +64277,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -64788,7 +64788,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -64828,7 +64828,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -65068,7 +65068,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -65108,7 +65108,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -65148,7 +65148,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -65188,7 +65188,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -65579,7 +65579,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -66130,7 +66130,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -66530,7 +66530,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -66570,7 +66570,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -66721,7 +66721,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -66841,7 +66841,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -66881,7 +66881,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -66921,7 +66921,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -66961,7 +66961,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -67001,7 +67001,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -67041,7 +67041,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -67081,7 +67081,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -67121,7 +67121,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -67161,7 +67161,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -67201,7 +67201,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -67241,7 +67241,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -67281,7 +67281,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -67321,7 +67321,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -67432,7 +67432,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -67472,7 +67472,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -67512,7 +67512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -67552,7 +67552,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -67592,7 +67592,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -69685,7 +69685,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -69725,7 +69725,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -69765,7 +69765,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -69805,7 +69805,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -69845,7 +69845,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -69925,7 +69925,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -69965,7 +69965,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -70987,7 +70987,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -71107,7 +71107,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -72449,7 +72449,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -73009,7 +73009,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -73120,7 +73120,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -73160,7 +73160,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -73200,7 +73200,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -73240,7 +73240,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -73280,7 +73280,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -73320,7 +73320,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -73400,7 +73400,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -73831,7 +73831,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -74031,7 +74031,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -74071,7 +74071,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -74111,7 +74111,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -74151,7 +74151,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -74191,7 +74191,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -74231,7 +74231,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -74271,7 +74271,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -74311,7 +74311,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -74351,7 +74351,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -74391,7 +74391,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -74431,7 +74431,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -74582,7 +74582,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -74622,7 +74622,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -74662,7 +74662,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -74702,7 +74702,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -74742,7 +74742,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -74862,7 +74862,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -74942,7 +74942,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -75533,7 +75533,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -75613,7 +75613,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -75653,7 +75653,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -75733,7 +75733,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -75773,7 +75773,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -75853,7 +75853,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -78097,7 +78097,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -78808,7 +78808,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -78848,7 +78848,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -78888,7 +78888,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -79008,7 +79008,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -79128,7 +79128,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -79168,7 +79168,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -79208,7 +79208,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -79519,7 +79519,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -79799,7 +79799,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -79839,7 +79839,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -79879,7 +79879,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -79919,7 +79919,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -79959,7 +79959,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -79999,7 +79999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -80039,7 +80039,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -80079,7 +80079,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -80119,7 +80119,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -80230,7 +80230,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -80470,7 +80470,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -80510,7 +80510,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -80941,7 +80941,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -80981,7 +80981,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -81021,7 +81021,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -81101,7 +81101,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -81181,7 +81181,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -81221,7 +81221,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -81301,7 +81301,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -81341,7 +81341,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -81381,7 +81381,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -81421,7 +81421,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -81541,7 +81541,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -81692,7 +81692,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -81732,7 +81732,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -81772,7 +81772,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -81812,7 +81812,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -81852,7 +81852,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -81892,7 +81892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -81932,7 +81932,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -81972,7 +81972,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -82012,7 +82012,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -82052,7 +82052,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -82092,7 +82092,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -82132,7 +82132,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -82172,7 +82172,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -82212,7 +82212,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -82252,7 +82252,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -83314,7 +83314,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -83354,7 +83354,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -83434,7 +83434,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -83474,7 +83474,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -83514,7 +83514,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -83554,7 +83554,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -83594,7 +83594,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -83634,7 +83634,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -83785,7 +83785,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -83825,7 +83825,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -83865,7 +83865,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -83905,7 +83905,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -83945,7 +83945,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -84025,7 +84025,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -84065,7 +84065,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -84105,7 +84105,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -84145,7 +84145,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -84185,7 +84185,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -84225,7 +84225,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -84265,7 +84265,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -84305,7 +84305,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -84776,7 +84776,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -84816,7 +84816,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -84896,7 +84896,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -84936,7 +84936,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -84976,7 +84976,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -85016,7 +85016,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -85056,7 +85056,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -85096,7 +85096,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -85918,7 +85918,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -85958,7 +85958,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -85998,7 +85998,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -86038,7 +86038,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -86078,7 +86078,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -86118,7 +86118,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -86198,7 +86198,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -86238,7 +86238,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -86278,7 +86278,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -86318,7 +86318,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -86358,7 +86358,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -86398,7 +86398,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -86478,7 +86478,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -86518,7 +86518,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -87540,7 +87540,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -87580,7 +87580,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -87620,7 +87620,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -87660,7 +87660,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -87700,7 +87700,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -87740,7 +87740,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -87780,7 +87780,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -87820,7 +87820,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -87860,7 +87860,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -87900,7 +87900,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -87940,7 +87940,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -88331,7 +88331,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -88491,7 +88491,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -88762,7 +88762,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -88802,7 +88802,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -88842,7 +88842,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -88882,7 +88882,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -88922,7 +88922,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -88962,7 +88962,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -89002,7 +89002,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -89162,7 +89162,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -89202,7 +89202,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -89242,7 +89242,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -89473,7 +89473,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -89513,7 +89513,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -89553,7 +89553,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -89593,7 +89593,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -89633,7 +89633,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -89673,7 +89673,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -89713,7 +89713,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -89913,7 +89913,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -89953,7 +89953,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -89993,7 +89993,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -90184,7 +90184,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -90224,7 +90224,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -90264,7 +90264,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -90304,7 +90304,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -90344,7 +90344,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -90384,7 +90384,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -90424,7 +90424,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -90464,7 +90464,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -90504,7 +90504,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -90544,7 +90544,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -90584,7 +90584,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -90624,7 +90624,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -90664,7 +90664,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -90704,7 +90704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -90744,7 +90744,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -91646,7 +91646,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -91686,7 +91686,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -91726,7 +91726,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -91766,7 +91766,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -91806,7 +91806,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -91846,7 +91846,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -92166,7 +92166,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -92317,7 +92317,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -92357,7 +92357,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -92397,7 +92397,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -92437,7 +92437,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -92477,7 +92477,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -92557,7 +92557,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -92597,7 +92597,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -93028,7 +93028,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -93068,7 +93068,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -93108,7 +93108,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -93268,7 +93268,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -93308,7 +93308,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -93628,7 +93628,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -94530,7 +94530,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -94570,7 +94570,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -94610,7 +94610,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -94650,7 +94650,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -94690,7 +94690,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -94730,7 +94730,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -94770,7 +94770,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -94810,7 +94810,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -94850,7 +94850,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -94890,7 +94890,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -94930,7 +94930,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -94970,7 +94970,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -95010,7 +95010,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -95050,7 +95050,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -95521,7 +95521,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -95912,7 +95912,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -96072,7 +96072,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -96112,7 +96112,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -97534,7 +97534,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -98005,7 +98005,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -98716,7 +98716,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -98876,7 +98876,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -98916,7 +98916,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -98956,7 +98956,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -99236,7 +99236,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -99276,7 +99276,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -99316,7 +99316,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -99427,7 +99427,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -99467,7 +99467,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -99507,7 +99507,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -99547,7 +99547,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -99587,7 +99587,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -99627,7 +99627,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -99667,7 +99667,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -99707,7 +99707,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -99747,7 +99747,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -99787,7 +99787,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -99827,7 +99827,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
         <v/>
@@ -99867,7 +99867,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -99907,7 +99907,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -99947,7 +99947,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -99987,7 +99987,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
         <v/>
@@ -100027,7 +100027,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v/>
@@ -100138,7 +100138,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>286</v>
+        <v>419</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -100338,7 +100338,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -100378,7 +100378,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -100418,7 +100418,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -100578,7 +100578,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -100618,7 +100618,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="E14" t="n">
         <v/>
@@ -100849,7 +100849,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -100889,7 +100889,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -101560,7 +101560,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -101600,7 +101600,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -101640,7 +101640,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -102271,7 +102271,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -102311,7 +102311,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -102471,7 +102471,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -102591,7 +102591,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -102711,7 +102711,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
         <v/>
@@ -102791,7 +102791,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E15" t="n">
         <v/>
@@ -102831,7 +102831,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E16" t="n">
         <v/>
